--- a/premise/data/additional_inventories/lci-battery-LIB-eol.xlsx
+++ b/premise/data/additional_inventories/lci-battery-LIB-eol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="856" documentId="13_ncr:1_{D0FB8C27-5AAD-4D83-B52A-9764F8EB4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C70ED770-57E3-45A2-9E2E-48AF742E05E4}"/>
+  <xr:revisionPtr revIDLastSave="869" documentId="13_ncr:1_{D0FB8C27-5AAD-4D83-B52A-9764F8EB4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04DF60A8-CCE4-4FD2-9220-EC9E46F15657}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>https://iris.polito.it/retrieve/dae18e96-f5f2-43f7-9900-11aaca5cc08b/batteries-09-00231.pdf#:~:text=According%20to%20the%20inventory%20of%20the%20treatment,231%206%20of%2013%20and%2023%25%20(11.2</t>
   </si>
   <si>
-    <t>treatment of used Li-ion battery, hydrometallurgical treatment, new</t>
-  </si>
-  <si>
     <t>100% recovery rate is assumed according to Hanna (2025)</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>nickel sulfate</t>
   </si>
   <si>
-    <t>treatment of used Li-ion battery, pyrometallurgical treatment, new</t>
-  </si>
-  <si>
     <t>56% recovery rate is assumed according to Hanna (2025)</t>
   </si>
   <si>
@@ -553,6 +547,12 @@
   </si>
   <si>
     <t>megajoule</t>
+  </si>
+  <si>
+    <t>treatment of used Li-ion battery with pyrometallurgical treatment</t>
+  </si>
+  <si>
+    <t>treatment of used Li-ion battery with hydrometallurgical treatment</t>
   </si>
 </sst>
 </file>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD350D84-DB86-47BC-8417-75C9225549F9}">
   <dimension ref="A1:R232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="56" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1027,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1112,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1239,7 +1239,7 @@
     <row r="13" spans="1:18" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="str">
         <f>B3</f>
-        <v>treatment of used Li-ion battery, hydrometallurgical treatment, new</v>
+        <v>treatment of used Li-ion battery with hydrometallurgical treatment</v>
       </c>
       <c r="B13" s="8">
         <f>160000/160000</f>
@@ -1257,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1296,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1360,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1381,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1508,7 +1508,7 @@
     <row r="25" spans="1:18" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="str">
         <f>B15</f>
-        <v>treatment of used Li-ion battery, hydrometallurgical treatment, new</v>
+        <v>treatment of used Li-ion battery with hydrometallurgical treatment</v>
       </c>
       <c r="B25" s="8">
         <f>160000/160000</f>
@@ -1526,7 +1526,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1560,7 +1560,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="2"/>
       <c r="R27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1634,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1656,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1790,7 +1790,7 @@
     <row r="37" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="str">
         <f>B27</f>
-        <v>treatment of used Li-ion battery, hydrometallurgical treatment, new</v>
+        <v>treatment of used Li-ion battery with hydrometallurgical treatment</v>
       </c>
       <c r="B37" s="8">
         <f>160000/160000</f>
@@ -1808,7 +1808,7 @@
         <v>14</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1868,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -1934,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -1956,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2090,7 +2090,7 @@
     <row r="49" spans="1:18" ht="31" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="str">
         <f>B39</f>
-        <v>treatment of used Li-ion battery, hydrometallurgical treatment, new</v>
+        <v>treatment of used Li-ion battery with hydrometallurgical treatment</v>
       </c>
       <c r="B49" s="8">
         <f>160000/160000</f>
@@ -2108,7 +2108,7 @@
         <v>14</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2168,7 +2168,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2232,7 +2232,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -2253,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -2380,7 +2380,7 @@
     <row r="61" spans="1:18" ht="31" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="str">
         <f>B51</f>
-        <v>treatment of used Li-ion battery, pyrometallurgical treatment, new</v>
+        <v>treatment of used Li-ion battery with pyrometallurgical treatment</v>
       </c>
       <c r="B61" s="8">
         <f>160000/160000</f>
@@ -2398,7 +2398,7 @@
         <v>14</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -2432,7 +2432,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="2"/>
       <c r="R63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
@@ -2440,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -2506,7 +2506,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -2528,7 +2528,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -2662,7 +2662,7 @@
     <row r="73" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="str">
         <f>B63</f>
-        <v>treatment of used Li-ion battery, pyrometallurgical treatment, new</v>
+        <v>treatment of used Li-ion battery with pyrometallurgical treatment</v>
       </c>
       <c r="B73" s="8">
         <f>160000/160000</f>
@@ -2680,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -2740,7 +2740,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -2806,7 +2806,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -2828,7 +2828,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -2962,7 +2962,7 @@
     <row r="85" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="str">
         <f>B75</f>
-        <v>treatment of used Li-ion battery, pyrometallurgical treatment, new</v>
+        <v>treatment of used Li-ion battery with pyrometallurgical treatment</v>
       </c>
       <c r="B85" s="8">
         <f>160000/160000</f>
@@ -2980,7 +2980,7 @@
         <v>14</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
@@ -3040,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
@@ -3082,7 +3082,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P91" s="16"/>
       <c r="Q91" s="16"/>
@@ -3092,7 +3092,7 @@
         <v>5</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P92" s="16"/>
       <c r="Q92" s="16"/>
@@ -3187,7 +3187,7 @@
     <row r="97" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="str">
         <f>B87</f>
-        <v>treatment of used Li-ion battery, hydrometallurgical treatment, new</v>
+        <v>treatment of used Li-ion battery with hydrometallurgical treatment</v>
       </c>
       <c r="B97" s="15">
         <v>-1</v>
@@ -3209,7 +3209,7 @@
         <v>used Li-ion battery</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
@@ -3241,7 +3241,7 @@
         <v>34</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="99" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B99" s="19">
         <f>4/1000</f>
@@ -3272,10 +3272,10 @@
         <v>15</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I99" s="15"/>
       <c r="J99" s="15"/>
@@ -3309,7 +3309,7 @@
         <v>34</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
@@ -3343,7 +3343,7 @@
         <v>27</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="102" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B102" s="20">
         <f>7.68/1000</f>
@@ -3374,10 +3374,10 @@
         <v>15</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H102" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I102" s="15"/>
       <c r="J102" s="15"/>
@@ -3411,7 +3411,7 @@
         <v>27</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I103" s="15"/>
       <c r="J103" s="15"/>
@@ -3445,7 +3445,7 @@
         <v>33</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="105" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B105" s="20">
         <f>40.8/1000</f>
@@ -3476,10 +3476,10 @@
         <v>15</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H105" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
@@ -3513,7 +3513,7 @@
         <v>34</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
@@ -3547,7 +3547,7 @@
         <v>27</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="108" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B108" s="18">
         <f>605.04/1000</f>
@@ -3578,10 +3578,10 @@
         <v>15</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H108" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
@@ -3615,7 +3615,7 @@
         <v>27</v>
       </c>
       <c r="H109" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
@@ -3649,7 +3649,7 @@
         <v>27</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="111" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A111" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B111" s="18">
         <f>122/1000</f>
@@ -3680,10 +3680,10 @@
         <v>15</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H111" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="112" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B112" s="18">
         <f>0.000225</f>
@@ -3714,10 +3714,10 @@
         <v>15</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -3751,7 +3751,7 @@
         <v>27</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -3785,7 +3785,7 @@
         <v>27</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="115" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B115" s="18">
         <f>240/1000</f>
@@ -3816,10 +3816,10 @@
         <v>15</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="116" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B116" s="18">
         <f>0.000215</f>
@@ -3850,10 +3850,10 @@
         <v>15</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
@@ -3887,7 +3887,7 @@
         <v>27</v>
       </c>
       <c r="H117" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
@@ -3921,7 +3921,7 @@
         <v>27</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="119" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B119" s="18">
         <f>236.4/1000</f>
@@ -3952,10 +3952,10 @@
         <v>15</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="120" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B120" s="18">
         <f>4.05/1000</f>
@@ -3986,10 +3986,10 @@
         <v>15</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
@@ -4023,7 +4023,7 @@
         <v>27</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="122" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A122" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B122" s="18">
         <f>15.95/1000</f>
@@ -4057,7 +4057,7 @@
         <v>30</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
@@ -4091,7 +4091,7 @@
         <v>27</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I123" s="15"/>
       <c r="J123" s="15"/>
@@ -4125,7 +4125,7 @@
         <v>27</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I124" s="15"/>
       <c r="J124" s="15"/>
@@ -4159,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
@@ -4193,7 +4193,7 @@
         <v>27</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I126" s="15"/>
       <c r="J126" s="15"/>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="127" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B127" s="20">
         <f>184.82/1000</f>
@@ -4224,10 +4224,10 @@
         <v>15</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="15"/>
@@ -4259,7 +4259,7 @@
         <v>27</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I128" s="15"/>
       <c r="J128" s="15"/>
@@ -4293,7 +4293,7 @@
         <v>27</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I129" s="15"/>
       <c r="J129" s="15"/>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="130" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A130" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B130" s="18">
         <f>221.41/1000</f>
@@ -4324,10 +4324,10 @@
         <v>15</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I130" s="15"/>
       <c r="J130" s="15"/>
@@ -4361,7 +4361,7 @@
         <v>27</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I131" s="15"/>
       <c r="J131" s="15"/>
@@ -4395,7 +4395,7 @@
         <v>27</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I132" s="15"/>
       <c r="J132" s="15"/>
@@ -4429,7 +4429,7 @@
         <v>39</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="15"/>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
@@ -4469,7 +4469,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
@@ -4511,7 +4511,7 @@
         <v>4</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P139" s="16"/>
       <c r="Q139" s="16"/>
@@ -4521,7 +4521,7 @@
         <v>5</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P140" s="16"/>
       <c r="Q140" s="16"/>
@@ -4616,7 +4616,7 @@
     <row r="145" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A145" s="17" t="str">
         <f>B135</f>
-        <v>treatment of used Li-ion battery, pyrometallurgical treatment, new</v>
+        <v>treatment of used Li-ion battery with pyrometallurgical treatment</v>
       </c>
       <c r="B145" s="15">
         <v>-1</v>
@@ -4638,7 +4638,7 @@
         <v>used Li-ion battery</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I145" s="15"/>
       <c r="J145" s="15"/>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="146" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B146" s="18">
         <f>160/1000</f>
@@ -4667,10 +4667,10 @@
         <v>15</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I146" s="15"/>
       <c r="J146" s="15"/>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="147" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B147" s="18">
         <f>40/1000</f>
@@ -4701,10 +4701,10 @@
         <v>15</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H147" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I147" s="15"/>
       <c r="J147" s="15"/>
@@ -4738,7 +4738,7 @@
         <v>27</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I148" s="15"/>
       <c r="J148" s="15"/>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="149" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B149" s="18">
         <f>149.86/1000</f>
@@ -4769,10 +4769,10 @@
         <v>15</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="150" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B150" s="18">
         <f>709/1000</f>
@@ -4797,14 +4797,14 @@
         <v>9</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G150" s="15"/>
       <c r="H150" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I150" s="15"/>
       <c r="J150" s="15"/>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="151" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B151" s="18">
         <v>1E-3</v>
@@ -4834,10 +4834,10 @@
         <v>15</v>
       </c>
       <c r="G151" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I151" s="15"/>
       <c r="J151" s="15"/>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="152" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A152" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B152" s="20">
         <f>305.5/1000</f>
@@ -4868,10 +4868,10 @@
         <v>15</v>
       </c>
       <c r="G152" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="15"/>
@@ -4905,7 +4905,7 @@
         <v>33</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I153" s="15"/>
       <c r="J153" s="15"/>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="154" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B154" s="18">
         <f>1944/1000</f>
@@ -4936,10 +4936,10 @@
         <v>15</v>
       </c>
       <c r="G154" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I154" s="15"/>
       <c r="J154" s="15"/>
@@ -4973,7 +4973,7 @@
         <v>27</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
@@ -5007,7 +5007,7 @@
         <v>27</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I156" s="15"/>
       <c r="J156" s="15"/>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="157" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B157" s="18">
         <f>0.00015565</f>
@@ -5038,10 +5038,10 @@
         <v>15</v>
       </c>
       <c r="G157" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I157" s="15"/>
       <c r="J157" s="15"/>
@@ -5075,7 +5075,7 @@
         <v>27</v>
       </c>
       <c r="H158" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I158" s="15"/>
       <c r="J158" s="15"/>
@@ -5109,7 +5109,7 @@
         <v>27</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I159" s="15"/>
       <c r="J159" s="15"/>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="160" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B160" s="18">
         <f>251.98/1000</f>
@@ -5140,10 +5140,10 @@
         <v>15</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H160" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I160" s="15"/>
       <c r="J160" s="15"/>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="161" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B161" s="18">
         <f>0.00014515</f>
@@ -5174,10 +5174,10 @@
         <v>15</v>
       </c>
       <c r="G161" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H161" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I161" s="15"/>
       <c r="J161" s="15"/>
@@ -5211,7 +5211,7 @@
         <v>27</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I162" s="15"/>
       <c r="J162" s="15"/>
@@ -5245,7 +5245,7 @@
         <v>27</v>
       </c>
       <c r="H163" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="15"/>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="164" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B164" s="18">
         <f>248.53/1000</f>
@@ -5276,10 +5276,10 @@
         <v>15</v>
       </c>
       <c r="G164" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H164" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I164" s="15"/>
       <c r="J164" s="15"/>
@@ -5313,7 +5313,7 @@
         <v>39</v>
       </c>
       <c r="H165" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
@@ -5347,7 +5347,7 @@
         <v>34</v>
       </c>
       <c r="H166" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I166" s="15"/>
       <c r="J166" s="15"/>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="167" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B167" s="18">
         <f>72.35/1000</f>
@@ -5378,10 +5378,10 @@
         <v>15</v>
       </c>
       <c r="G167" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I167" s="15"/>
       <c r="J167" s="15"/>
@@ -5415,7 +5415,7 @@
         <v>27</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I168" s="15"/>
       <c r="J168" s="15"/>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="169" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B169" s="18">
         <f>65.77/1000</f>
@@ -5440,10 +5440,10 @@
         <v>9</v>
       </c>
       <c r="E169" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G169" s="15"/>
       <c r="H169" s="15"/>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -5502,7 +5502,7 @@
         <v>3</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -5565,7 +5565,7 @@
         <v>4</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -5586,7 +5586,7 @@
         <v>5</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="182" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B182" s="22">
         <v>10.050000000000001</v>
@@ -5761,10 +5761,10 @@
         <v>15</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="183" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B183" s="22">
         <v>41.54</v>
@@ -5792,7 +5792,7 @@
         <v>15</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="185" spans="1:17" s="23" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A185" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B185" s="6">
         <v>44.56</v>
@@ -5848,7 +5848,7 @@
         <v>36</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="5" t="s">
@@ -5858,7 +5858,7 @@
         <v>37</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="186" spans="1:17" s="23" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A186" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B186" s="6">
         <v>-0.6</v>
@@ -5888,7 +5888,7 @@
         <v>15</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -5944,7 +5944,7 @@
         <v>3</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -6007,7 +6007,7 @@
         <v>4</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -6028,7 +6028,7 @@
         <v>5</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -6177,7 +6177,7 @@
         <v>organic solvent</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="199" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B199" s="22">
         <v>150</v>
@@ -6205,10 +6205,10 @@
         <v>15</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="200" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B200" s="22">
         <v>800</v>
@@ -6236,10 +6236,10 @@
         <v>15</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
@@ -6275,7 +6275,7 @@
         <v>3</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -6338,7 +6338,7 @@
         <v>4</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -6359,7 +6359,7 @@
         <v>5</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="213" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B213" s="22">
         <v>1.9</v>
@@ -6534,7 +6534,7 @@
         <v>15</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="214" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B214" s="22">
         <v>0.46</v>
@@ -6563,7 +6563,7 @@
         <v>15</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="216" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B216" s="22">
         <v>0.16</v>
@@ -6617,10 +6617,10 @@
         <v>9</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
@@ -6660,7 +6660,7 @@
         <v>3</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
@@ -6723,7 +6723,7 @@
         <v>4</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
@@ -6744,7 +6744,7 @@
         <v>5</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="229" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B229" s="22">
         <v>0.75</v>
@@ -6919,7 +6919,7 @@
         <v>15</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
@@ -6934,7 +6934,7 @@
     </row>
     <row r="230" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B230" s="22">
         <v>0.52</v>
@@ -6950,7 +6950,7 @@
         <v>15</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="231" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B231" s="22">
         <v>0.56000000000000005</v>
@@ -6979,7 +6979,7 @@
         <v>15</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="232" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B232" s="22">
         <v>0.25</v>
@@ -7008,7 +7008,7 @@
         <v>15</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>

--- a/premise/data/additional_inventories/lci-battery-LIB-eol.xlsx
+++ b/premise/data/additional_inventories/lci-battery-LIB-eol.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="869" documentId="13_ncr:1_{D0FB8C27-5AAD-4D83-B52A-9764F8EB4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04DF60A8-CCE4-4FD2-9220-EC9E46F15657}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F1F2EF-10E3-46C0-8FC9-8415C07329C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Li-ion_Battery_EOL" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="174">
   <si>
     <t>Activity</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>treatment of used Li-ion battery with hydrometallurgical treatment</t>
+  </si>
+  <si>
+    <t>Original value: 0.16 | We consider this an error in the proxy selection when building original LCI</t>
   </si>
 </sst>
 </file>
@@ -964,27 +967,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD350D84-DB86-47BC-8417-75C9225549F9}">
   <dimension ref="A1:R232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="72" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="137" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="65.1796875" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="65.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -996,11 +999,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P2" s="1"/>
       <c r="R2" s="12"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1025,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +1046,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -1064,7 +1067,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1086,7 +1089,7 @@
       <c r="O6" s="8"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1110,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1131,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1152,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +1173,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1189,7 +1192,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="str">
         <f>B3</f>
         <v>treatment of used Li-ion battery with hydrometallurgical treatment</v>
@@ -1268,7 +1271,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1294,7 @@
       <c r="P15" s="1"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>3</v>
       </c>
@@ -1312,7 +1315,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1336,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>2</v>
       </c>
@@ -1355,7 +1358,7 @@
       <c r="O18" s="8"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>4</v>
       </c>
@@ -1376,7 +1379,7 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
@@ -1397,7 +1400,7 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -1418,7 +1421,7 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
     </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
@@ -1439,7 +1442,7 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
     </row>
-    <row r="23" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
@@ -1458,7 +1461,7 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="str">
         <f>B15</f>
         <v>treatment of used Li-ion battery with hydrometallurgical treatment</v>
@@ -1537,7 +1540,7 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
-    <row r="27" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>3</v>
       </c>
@@ -1585,7 +1588,7 @@
       <c r="O28" s="8"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
@@ -1607,7 +1610,7 @@
       <c r="O29" s="8"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>2</v>
       </c>
@@ -1629,7 +1632,7 @@
       <c r="O30" s="8"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>4</v>
       </c>
@@ -1651,7 +1654,7 @@
       <c r="O31" s="8"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>5</v>
       </c>
@@ -1673,7 +1676,7 @@
       <c r="O32" s="8"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>6</v>
       </c>
@@ -1696,7 +1699,7 @@
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>8</v>
       </c>
@@ -1719,7 +1722,7 @@
       <c r="P34"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
@@ -1740,7 +1743,7 @@
       <c r="P35"/>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="str">
         <f>B27</f>
         <v>treatment of used Li-ion battery with hydrometallurgical treatment</v>
@@ -1821,7 +1824,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1840,7 +1843,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1866,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>3</v>
       </c>
@@ -1885,7 +1888,7 @@
       <c r="O40" s="8"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>1</v>
       </c>
@@ -1907,7 +1910,7 @@
       <c r="O41" s="8"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>2</v>
       </c>
@@ -1929,7 +1932,7 @@
       <c r="O42" s="8"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +1954,7 @@
       <c r="O43" s="8"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>5</v>
       </c>
@@ -1973,7 +1976,7 @@
       <c r="O44" s="8"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>6</v>
       </c>
@@ -1996,7 +1999,7 @@
       <c r="P45"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>8</v>
       </c>
@@ -2019,7 +2022,7 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>10</v>
       </c>
@@ -2040,7 +2043,7 @@
       <c r="P47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>11</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="str">
         <f>B39</f>
         <v>treatment of used Li-ion battery with hydrometallurgical treatment</v>
@@ -2121,7 +2124,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2140,7 +2143,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>0</v>
       </c>
@@ -2163,7 +2166,7 @@
       <c r="P51" s="1"/>
       <c r="R51" s="13"/>
     </row>
-    <row r="52" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>3</v>
       </c>
@@ -2184,7 +2187,7 @@
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
     </row>
-    <row r="53" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>1</v>
       </c>
@@ -2205,7 +2208,7 @@
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
     </row>
-    <row r="54" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>2</v>
       </c>
@@ -2227,7 +2230,7 @@
       <c r="O54" s="8"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>4</v>
       </c>
@@ -2248,7 +2251,7 @@
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
     </row>
-    <row r="56" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>5</v>
       </c>
@@ -2269,7 +2272,7 @@
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
     </row>
-    <row r="57" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>6</v>
       </c>
@@ -2290,7 +2293,7 @@
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
     </row>
-    <row r="58" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>8</v>
       </c>
@@ -2311,7 +2314,7 @@
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
     </row>
-    <row r="59" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>10</v>
       </c>
@@ -2330,7 +2333,7 @@
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
     </row>
-    <row r="60" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>11</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="str">
         <f>B51</f>
         <v>treatment of used Li-ion battery with pyrometallurgical treatment</v>
@@ -2409,7 +2412,7 @@
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
     </row>
-    <row r="63" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>3</v>
       </c>
@@ -2457,7 +2460,7 @@
       <c r="O64" s="8"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>1</v>
       </c>
@@ -2479,7 +2482,7 @@
       <c r="O65" s="8"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>2</v>
       </c>
@@ -2501,7 +2504,7 @@
       <c r="O66" s="8"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>4</v>
       </c>
@@ -2523,7 +2526,7 @@
       <c r="O67" s="8"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>5</v>
       </c>
@@ -2545,7 +2548,7 @@
       <c r="O68" s="8"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>6</v>
       </c>
@@ -2568,7 +2571,7 @@
       <c r="P69"/>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>8</v>
       </c>
@@ -2591,7 +2594,7 @@
       <c r="P70"/>
       <c r="Q70"/>
     </row>
-    <row r="71" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>10</v>
       </c>
@@ -2612,7 +2615,7 @@
       <c r="P71"/>
       <c r="Q71"/>
     </row>
-    <row r="72" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>11</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="str">
         <f>B63</f>
         <v>treatment of used Li-ion battery with pyrometallurgical treatment</v>
@@ -2693,7 +2696,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2712,7 +2715,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>0</v>
       </c>
@@ -2735,7 +2738,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>3</v>
       </c>
@@ -2757,7 +2760,7 @@
       <c r="O76" s="8"/>
       <c r="P76" s="1"/>
     </row>
-    <row r="77" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>1</v>
       </c>
@@ -2779,7 +2782,7 @@
       <c r="O77" s="8"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>2</v>
       </c>
@@ -2801,7 +2804,7 @@
       <c r="O78" s="8"/>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>4</v>
       </c>
@@ -2823,7 +2826,7 @@
       <c r="O79" s="8"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>5</v>
       </c>
@@ -2845,7 +2848,7 @@
       <c r="O80" s="8"/>
       <c r="P80" s="1"/>
     </row>
-    <row r="81" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>6</v>
       </c>
@@ -2868,7 +2871,7 @@
       <c r="P81"/>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>8</v>
       </c>
@@ -2891,7 +2894,7 @@
       <c r="P82"/>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>10</v>
       </c>
@@ -2912,7 +2915,7 @@
       <c r="P83"/>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>11</v>
       </c>
@@ -2959,7 +2962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="str">
         <f>B75</f>
         <v>treatment of used Li-ion battery with pyrometallurgical treatment</v>
@@ -2993,7 +2996,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="2"/>
     </row>
-    <row r="86" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3012,7 +3015,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="2"/>
     </row>
-    <row r="87" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>0</v>
       </c>
@@ -3035,7 +3038,7 @@
       <c r="P87" s="14"/>
       <c r="Q87" s="15"/>
     </row>
-    <row r="88" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>3</v>
       </c>
@@ -3058,7 +3061,7 @@
       <c r="P88" s="14"/>
       <c r="Q88" s="15"/>
     </row>
-    <row r="89" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>1</v>
       </c>
@@ -3067,7 +3070,7 @@
       </c>
       <c r="P89" s="14"/>
     </row>
-    <row r="90" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>2</v>
       </c>
@@ -3077,7 +3080,7 @@
       <c r="P90" s="16"/>
       <c r="Q90" s="16"/>
     </row>
-    <row r="91" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>4</v>
       </c>
@@ -3087,7 +3090,7 @@
       <c r="P91" s="16"/>
       <c r="Q91" s="16"/>
     </row>
-    <row r="92" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>5</v>
       </c>
@@ -3097,7 +3100,7 @@
       <c r="P92" s="16"/>
       <c r="Q92" s="16"/>
     </row>
-    <row r="93" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>6</v>
       </c>
@@ -3118,7 +3121,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="15"/>
     </row>
-    <row r="94" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>8</v>
       </c>
@@ -3128,14 +3131,14 @@
       <c r="P94" s="16"/>
       <c r="Q94" s="16"/>
     </row>
-    <row r="95" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>10</v>
       </c>
       <c r="P95" s="16"/>
       <c r="Q95" s="16"/>
     </row>
-    <row r="96" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3187,7 @@
       <c r="P96" s="16"/>
       <c r="Q96" s="16"/>
     </row>
-    <row r="97" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="str">
         <f>B87</f>
         <v>treatment of used Li-ion battery with hydrometallurgical treatment</v>
@@ -3219,7 +3222,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="15"/>
     </row>
-    <row r="98" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>35</v>
       </c>
@@ -3253,7 +3256,7 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="15"/>
     </row>
-    <row r="99" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>56</v>
       </c>
@@ -3287,7 +3290,7 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="15"/>
     </row>
-    <row r="100" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>35</v>
       </c>
@@ -3321,7 +3324,7 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="15"/>
     </row>
-    <row r="101" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>26</v>
       </c>
@@ -3355,7 +3358,7 @@
       <c r="P101" s="14"/>
       <c r="Q101" s="15"/>
     </row>
-    <row r="102" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>61</v>
       </c>
@@ -3389,7 +3392,7 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="15"/>
     </row>
-    <row r="103" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>26</v>
       </c>
@@ -3423,7 +3426,7 @@
       <c r="P103" s="14"/>
       <c r="Q103" s="15"/>
     </row>
-    <row r="104" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>32</v>
       </c>
@@ -3457,7 +3460,7 @@
       <c r="P104" s="14"/>
       <c r="Q104" s="15"/>
     </row>
-    <row r="105" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>66</v>
       </c>
@@ -3491,7 +3494,7 @@
       <c r="P105" s="14"/>
       <c r="Q105" s="15"/>
     </row>
-    <row r="106" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>35</v>
       </c>
@@ -3525,7 +3528,7 @@
       <c r="P106" s="14"/>
       <c r="Q106" s="15"/>
     </row>
-    <row r="107" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>26</v>
       </c>
@@ -3559,7 +3562,7 @@
       <c r="P107" s="14"/>
       <c r="Q107" s="15"/>
     </row>
-    <row r="108" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>71</v>
       </c>
@@ -3593,7 +3596,7 @@
       <c r="P108" s="14"/>
       <c r="Q108" s="15"/>
     </row>
-    <row r="109" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>26</v>
       </c>
@@ -3627,7 +3630,7 @@
       <c r="P109" s="14"/>
       <c r="Q109" s="15"/>
     </row>
-    <row r="110" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>26</v>
       </c>
@@ -3661,7 +3664,7 @@
       <c r="P110" s="14"/>
       <c r="Q110" s="15"/>
     </row>
-    <row r="111" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>76</v>
       </c>
@@ -3695,7 +3698,7 @@
       <c r="P111" s="14"/>
       <c r="Q111" s="15"/>
     </row>
-    <row r="112" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>79</v>
       </c>
@@ -3729,7 +3732,7 @@
       <c r="P112" s="14"/>
       <c r="Q112" s="15"/>
     </row>
-    <row r="113" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>26</v>
       </c>
@@ -3763,7 +3766,7 @@
       <c r="P113" s="14"/>
       <c r="Q113" s="15"/>
     </row>
-    <row r="114" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>26</v>
       </c>
@@ -3797,7 +3800,7 @@
       <c r="P114" s="14"/>
       <c r="Q114" s="15"/>
     </row>
-    <row r="115" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>84</v>
       </c>
@@ -3831,7 +3834,7 @@
       <c r="P115" s="14"/>
       <c r="Q115" s="15"/>
     </row>
-    <row r="116" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>79</v>
       </c>
@@ -3865,7 +3868,7 @@
       <c r="P116" s="14"/>
       <c r="Q116" s="15"/>
     </row>
-    <row r="117" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
         <v>26</v>
       </c>
@@ -3899,7 +3902,7 @@
       <c r="P117" s="14"/>
       <c r="Q117" s="15"/>
     </row>
-    <row r="118" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>26</v>
       </c>
@@ -3933,7 +3936,7 @@
       <c r="P118" s="14"/>
       <c r="Q118" s="15"/>
     </row>
-    <row r="119" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>84</v>
       </c>
@@ -3967,7 +3970,7 @@
       <c r="P119" s="14"/>
       <c r="Q119" s="15"/>
     </row>
-    <row r="120" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>91</v>
       </c>
@@ -4001,7 +4004,7 @@
       <c r="P120" s="14"/>
       <c r="Q120" s="15"/>
     </row>
-    <row r="121" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>26</v>
       </c>
@@ -4035,7 +4038,7 @@
       <c r="P121" s="14"/>
       <c r="Q121" s="15"/>
     </row>
-    <row r="122" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
         <v>95</v>
       </c>
@@ -4069,7 +4072,7 @@
       <c r="P122" s="14"/>
       <c r="Q122" s="15"/>
     </row>
-    <row r="123" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>26</v>
       </c>
@@ -4103,7 +4106,7 @@
       <c r="P123" s="14"/>
       <c r="Q123" s="15"/>
     </row>
-    <row r="124" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>26</v>
       </c>
@@ -4137,7 +4140,7 @@
       <c r="P124" s="14"/>
       <c r="Q124" s="15"/>
     </row>
-    <row r="125" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>26</v>
       </c>
@@ -4171,7 +4174,7 @@
       <c r="P125" s="14"/>
       <c r="Q125" s="15"/>
     </row>
-    <row r="126" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>26</v>
       </c>
@@ -4205,7 +4208,7 @@
       <c r="P126" s="14"/>
       <c r="Q126" s="15"/>
     </row>
-    <row r="127" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>101</v>
       </c>
@@ -4237,7 +4240,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="15"/>
     </row>
-    <row r="128" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>26</v>
       </c>
@@ -4271,7 +4274,7 @@
       <c r="P128" s="14"/>
       <c r="Q128" s="15"/>
     </row>
-    <row r="129" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>26</v>
       </c>
@@ -4305,7 +4308,7 @@
       <c r="P129" s="14"/>
       <c r="Q129" s="15"/>
     </row>
-    <row r="130" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>76</v>
       </c>
@@ -4339,7 +4342,7 @@
       <c r="P130" s="14"/>
       <c r="Q130" s="15"/>
     </row>
-    <row r="131" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>26</v>
       </c>
@@ -4373,7 +4376,7 @@
       <c r="P131" s="14"/>
       <c r="Q131" s="15"/>
     </row>
-    <row r="132" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>26</v>
       </c>
@@ -4407,7 +4410,7 @@
       <c r="P132" s="14"/>
       <c r="Q132" s="15"/>
     </row>
-    <row r="133" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>38</v>
       </c>
@@ -4441,7 +4444,7 @@
       <c r="P133" s="14"/>
       <c r="Q133" s="15"/>
     </row>
-    <row r="135" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>0</v>
       </c>
@@ -4464,7 +4467,7 @@
       <c r="P135" s="14"/>
       <c r="Q135" s="15"/>
     </row>
-    <row r="136" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>3</v>
       </c>
@@ -4487,7 +4490,7 @@
       <c r="P136" s="14"/>
       <c r="Q136" s="15"/>
     </row>
-    <row r="137" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>1</v>
       </c>
@@ -4496,7 +4499,7 @@
       </c>
       <c r="P137" s="14"/>
     </row>
-    <row r="138" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>2</v>
       </c>
@@ -4506,7 +4509,7 @@
       <c r="P138" s="16"/>
       <c r="Q138" s="16"/>
     </row>
-    <row r="139" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>4</v>
       </c>
@@ -4516,7 +4519,7 @@
       <c r="P139" s="16"/>
       <c r="Q139" s="16"/>
     </row>
-    <row r="140" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>5</v>
       </c>
@@ -4526,7 +4529,7 @@
       <c r="P140" s="16"/>
       <c r="Q140" s="16"/>
     </row>
-    <row r="141" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>6</v>
       </c>
@@ -4547,7 +4550,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="15"/>
     </row>
-    <row r="142" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>8</v>
       </c>
@@ -4557,14 +4560,14 @@
       <c r="P142" s="16"/>
       <c r="Q142" s="16"/>
     </row>
-    <row r="143" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>10</v>
       </c>
       <c r="P143" s="16"/>
       <c r="Q143" s="16"/>
     </row>
-    <row r="144" spans="1:17" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>11</v>
       </c>
@@ -4613,7 +4616,7 @@
       <c r="P144" s="16"/>
       <c r="Q144" s="16"/>
     </row>
-    <row r="145" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="str">
         <f>B135</f>
         <v>treatment of used Li-ion battery with pyrometallurgical treatment</v>
@@ -4648,7 +4651,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="15"/>
     </row>
-    <row r="146" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>111</v>
       </c>
@@ -4682,7 +4685,7 @@
       <c r="P146" s="14"/>
       <c r="Q146" s="15"/>
     </row>
-    <row r="147" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>114</v>
       </c>
@@ -4716,7 +4719,7 @@
       <c r="P147" s="14"/>
       <c r="Q147" s="15"/>
     </row>
-    <row r="148" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>26</v>
       </c>
@@ -4750,7 +4753,7 @@
       <c r="P148" s="14"/>
       <c r="Q148" s="15"/>
     </row>
-    <row r="149" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>118</v>
       </c>
@@ -4784,7 +4787,7 @@
       <c r="P149" s="14"/>
       <c r="Q149" s="15"/>
     </row>
-    <row r="150" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>121</v>
       </c>
@@ -4816,7 +4819,7 @@
       <c r="P150" s="14"/>
       <c r="Q150" s="15"/>
     </row>
-    <row r="151" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>125</v>
       </c>
@@ -4849,7 +4852,7 @@
       <c r="P151" s="14"/>
       <c r="Q151" s="15"/>
     </row>
-    <row r="152" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
         <v>66</v>
       </c>
@@ -4883,7 +4886,7 @@
       <c r="P152" s="14"/>
       <c r="Q152" s="15"/>
     </row>
-    <row r="153" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
         <v>32</v>
       </c>
@@ -4917,7 +4920,7 @@
       <c r="P153" s="14"/>
       <c r="Q153" s="15"/>
     </row>
-    <row r="154" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>71</v>
       </c>
@@ -4951,7 +4954,7 @@
       <c r="P154" s="14"/>
       <c r="Q154" s="15"/>
     </row>
-    <row r="155" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>26</v>
       </c>
@@ -4985,7 +4988,7 @@
       <c r="P155" s="14"/>
       <c r="Q155" s="15"/>
     </row>
-    <row r="156" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
         <v>26</v>
       </c>
@@ -5019,7 +5022,7 @@
       <c r="P156" s="14"/>
       <c r="Q156" s="15"/>
     </row>
-    <row r="157" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
         <v>79</v>
       </c>
@@ -5053,7 +5056,7 @@
       <c r="P157" s="14"/>
       <c r="Q157" s="15"/>
     </row>
-    <row r="158" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
         <v>26</v>
       </c>
@@ -5087,7 +5090,7 @@
       <c r="P158" s="14"/>
       <c r="Q158" s="15"/>
     </row>
-    <row r="159" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
         <v>26</v>
       </c>
@@ -5121,7 +5124,7 @@
       <c r="P159" s="14"/>
       <c r="Q159" s="15"/>
     </row>
-    <row r="160" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>84</v>
       </c>
@@ -5155,7 +5158,7 @@
       <c r="P160" s="14"/>
       <c r="Q160" s="15"/>
     </row>
-    <row r="161" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>79</v>
       </c>
@@ -5189,7 +5192,7 @@
       <c r="P161" s="14"/>
       <c r="Q161" s="15"/>
     </row>
-    <row r="162" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>26</v>
       </c>
@@ -5223,7 +5226,7 @@
       <c r="P162" s="14"/>
       <c r="Q162" s="15"/>
     </row>
-    <row r="163" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>26</v>
       </c>
@@ -5257,7 +5260,7 @@
       <c r="P163" s="14"/>
       <c r="Q163" s="15"/>
     </row>
-    <row r="164" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>84</v>
       </c>
@@ -5291,7 +5294,7 @@
       <c r="P164" s="14"/>
       <c r="Q164" s="15"/>
     </row>
-    <row r="165" spans="1:17" s="16" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>38</v>
       </c>
@@ -5325,7 +5328,7 @@
       <c r="P165" s="14"/>
       <c r="Q165" s="15"/>
     </row>
-    <row r="166" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
         <v>35</v>
       </c>
@@ -5359,7 +5362,7 @@
       <c r="P166" s="14"/>
       <c r="Q166" s="15"/>
     </row>
-    <row r="167" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>140</v>
       </c>
@@ -5393,7 +5396,7 @@
       <c r="P167" s="14"/>
       <c r="Q167" s="15"/>
     </row>
-    <row r="168" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="17" t="s">
         <v>26</v>
       </c>
@@ -5427,7 +5430,7 @@
       <c r="P168" s="14"/>
       <c r="Q168" s="15"/>
     </row>
-    <row r="169" spans="1:17" s="16" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
         <v>121</v>
       </c>
@@ -5457,7 +5460,7 @@
       <c r="P169" s="14"/>
       <c r="Q169" s="15"/>
     </row>
-    <row r="170" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
       <c r="B170" s="21"/>
       <c r="C170" s="2"/>
@@ -5476,7 +5479,7 @@
       <c r="P170" s="1"/>
       <c r="Q170" s="2"/>
     </row>
-    <row r="171" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>0</v>
       </c>
@@ -5497,7 +5500,7 @@
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
     </row>
-    <row r="172" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>3</v>
       </c>
@@ -5518,7 +5521,7 @@
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
     </row>
-    <row r="173" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>1</v>
       </c>
@@ -5539,7 +5542,7 @@
       <c r="N173" s="5"/>
       <c r="O173" s="5"/>
     </row>
-    <row r="174" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>2</v>
       </c>
@@ -5560,7 +5563,7 @@
       <c r="N174" s="5"/>
       <c r="O174" s="5"/>
     </row>
-    <row r="175" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>4</v>
       </c>
@@ -5581,7 +5584,7 @@
       <c r="N175" s="5"/>
       <c r="O175" s="5"/>
     </row>
-    <row r="176" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>5</v>
       </c>
@@ -5602,7 +5605,7 @@
       <c r="N176" s="5"/>
       <c r="O176" s="5"/>
     </row>
-    <row r="177" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>6</v>
       </c>
@@ -5623,7 +5626,7 @@
       <c r="N177" s="5"/>
       <c r="O177" s="5"/>
     </row>
-    <row r="178" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>8</v>
       </c>
@@ -5644,7 +5647,7 @@
       <c r="N178" s="5"/>
       <c r="O178" s="5"/>
     </row>
-    <row r="179" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>10</v>
       </c>
@@ -5663,7 +5666,7 @@
       <c r="N179" s="5"/>
       <c r="O179" s="5"/>
     </row>
-    <row r="180" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>11</v>
       </c>
@@ -5710,7 +5713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="str">
         <f>B171</f>
         <v>offgas cleaning, pyrolysis</v>
@@ -5743,7 +5746,7 @@
       <c r="N181" s="5"/>
       <c r="O181" s="5"/>
     </row>
-    <row r="182" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>145</v>
       </c>
@@ -5774,7 +5777,7 @@
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
     </row>
-    <row r="183" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>71</v>
       </c>
@@ -5805,7 +5808,7 @@
       <c r="P183" s="1"/>
       <c r="Q183" s="2"/>
     </row>
-    <row r="184" spans="1:17" s="23" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:17" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>26</v>
       </c>
@@ -5837,7 +5840,7 @@
       <c r="P184" s="4"/>
       <c r="Q184" s="5"/>
     </row>
-    <row r="185" spans="1:17" s="23" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:17" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>148</v>
       </c>
@@ -5870,7 +5873,7 @@
       <c r="P185" s="4"/>
       <c r="Q185" s="5"/>
     </row>
-    <row r="186" spans="1:17" s="23" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:17" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>150</v>
       </c>
@@ -5901,7 +5904,7 @@
       <c r="P186" s="4"/>
       <c r="Q186" s="5"/>
     </row>
-    <row r="187" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="24"/>
       <c r="B187" s="21"/>
       <c r="C187" s="2"/>
@@ -5918,7 +5921,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
     </row>
-    <row r="188" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>0</v>
       </c>
@@ -5939,7 +5942,7 @@
       <c r="N188" s="5"/>
       <c r="O188" s="5"/>
     </row>
-    <row r="189" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>3</v>
       </c>
@@ -5960,7 +5963,7 @@
       <c r="N189" s="5"/>
       <c r="O189" s="5"/>
     </row>
-    <row r="190" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>1</v>
       </c>
@@ -5981,7 +5984,7 @@
       <c r="N190" s="5"/>
       <c r="O190" s="5"/>
     </row>
-    <row r="191" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>2</v>
       </c>
@@ -6002,7 +6005,7 @@
       <c r="N191" s="5"/>
       <c r="O191" s="5"/>
     </row>
-    <row r="192" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>4</v>
       </c>
@@ -6023,7 +6026,7 @@
       <c r="N192" s="5"/>
       <c r="O192" s="5"/>
     </row>
-    <row r="193" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>5</v>
       </c>
@@ -6044,7 +6047,7 @@
       <c r="N193" s="5"/>
       <c r="O193" s="5"/>
     </row>
-    <row r="194" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>6</v>
       </c>
@@ -6065,7 +6068,7 @@
       <c r="N194" s="5"/>
       <c r="O194" s="5"/>
     </row>
-    <row r="195" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>8</v>
       </c>
@@ -6086,7 +6089,7 @@
       <c r="N195" s="5"/>
       <c r="O195" s="5"/>
     </row>
-    <row r="196" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>10</v>
       </c>
@@ -6105,7 +6108,7 @@
       <c r="N196" s="5"/>
       <c r="O196" s="5"/>
     </row>
-    <row r="197" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>11</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="str">
         <f>B188</f>
         <v>organic solution, with cyanex272</v>
@@ -6187,7 +6190,7 @@
       <c r="N198" s="5"/>
       <c r="O198" s="5"/>
     </row>
-    <row r="199" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>154</v>
       </c>
@@ -6218,7 +6221,7 @@
       <c r="N199" s="5"/>
       <c r="O199" s="5"/>
     </row>
-    <row r="200" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>157</v>
       </c>
@@ -6249,7 +6252,7 @@
       <c r="N200" s="5"/>
       <c r="O200" s="5"/>
     </row>
-    <row r="202" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>0</v>
       </c>
@@ -6270,7 +6273,7 @@
       <c r="N202" s="5"/>
       <c r="O202" s="5"/>
     </row>
-    <row r="203" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>3</v>
       </c>
@@ -6291,7 +6294,7 @@
       <c r="N203" s="5"/>
       <c r="O203" s="5"/>
     </row>
-    <row r="204" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>1</v>
       </c>
@@ -6312,7 +6315,7 @@
       <c r="N204" s="5"/>
       <c r="O204" s="5"/>
     </row>
-    <row r="205" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>2</v>
       </c>
@@ -6333,7 +6336,7 @@
       <c r="N205" s="5"/>
       <c r="O205" s="5"/>
     </row>
-    <row r="206" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>4</v>
       </c>
@@ -6354,7 +6357,7 @@
       <c r="N206" s="5"/>
       <c r="O206" s="5"/>
     </row>
-    <row r="207" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>5</v>
       </c>
@@ -6375,7 +6378,7 @@
       <c r="N207" s="5"/>
       <c r="O207" s="5"/>
     </row>
-    <row r="208" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>6</v>
       </c>
@@ -6396,7 +6399,7 @@
       <c r="N208" s="5"/>
       <c r="O208" s="5"/>
     </row>
-    <row r="209" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>8</v>
       </c>
@@ -6417,7 +6420,7 @@
       <c r="N209" s="5"/>
       <c r="O209" s="5"/>
     </row>
-    <row r="210" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>10</v>
       </c>
@@ -6436,7 +6439,7 @@
       <c r="N210" s="5"/>
       <c r="O210" s="5"/>
     </row>
-    <row r="211" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>11</v>
       </c>
@@ -6483,7 +6486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="str">
         <f>B202</f>
         <v>cyanex272 production</v>
@@ -6516,7 +6519,7 @@
       <c r="N212" s="5"/>
       <c r="O212" s="5"/>
     </row>
-    <row r="213" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>161</v>
       </c>
@@ -6545,7 +6548,7 @@
       <c r="N213" s="5"/>
       <c r="O213" s="5"/>
     </row>
-    <row r="214" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>163</v>
       </c>
@@ -6574,7 +6577,7 @@
       <c r="N214" s="5"/>
       <c r="O214" s="5"/>
     </row>
-    <row r="215" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>26</v>
       </c>
@@ -6605,12 +6608,12 @@
       <c r="P215" s="1"/>
       <c r="Q215" s="2"/>
     </row>
-    <row r="216" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>165</v>
       </c>
       <c r="B216" s="22">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5" t="s">
@@ -6623,7 +6626,9 @@
         <v>123</v>
       </c>
       <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
+      <c r="H216" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
@@ -6634,7 +6639,7 @@
       <c r="P216" s="1"/>
       <c r="Q216" s="2"/>
     </row>
-    <row r="218" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>0</v>
       </c>
@@ -6655,7 +6660,7 @@
       <c r="N218" s="5"/>
       <c r="O218" s="5"/>
     </row>
-    <row r="219" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>3</v>
       </c>
@@ -6676,7 +6681,7 @@
       <c r="N219" s="5"/>
       <c r="O219" s="5"/>
     </row>
-    <row r="220" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>1</v>
       </c>
@@ -6697,7 +6702,7 @@
       <c r="N220" s="5"/>
       <c r="O220" s="5"/>
     </row>
-    <row r="221" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>2</v>
       </c>
@@ -6718,7 +6723,7 @@
       <c r="N221" s="5"/>
       <c r="O221" s="5"/>
     </row>
-    <row r="222" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>4</v>
       </c>
@@ -6739,7 +6744,7 @@
       <c r="N222" s="5"/>
       <c r="O222" s="5"/>
     </row>
-    <row r="223" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>5</v>
       </c>
@@ -6760,7 +6765,7 @@
       <c r="N223" s="5"/>
       <c r="O223" s="5"/>
     </row>
-    <row r="224" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>6</v>
       </c>
@@ -6781,7 +6786,7 @@
       <c r="N224" s="5"/>
       <c r="O224" s="5"/>
     </row>
-    <row r="225" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>8</v>
       </c>
@@ -6802,7 +6807,7 @@
       <c r="N225" s="5"/>
       <c r="O225" s="5"/>
     </row>
-    <row r="226" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>10</v>
       </c>
@@ -6821,7 +6826,7 @@
       <c r="N226" s="5"/>
       <c r="O226" s="5"/>
     </row>
-    <row r="227" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>11</v>
       </c>
@@ -6868,7 +6873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="str">
         <f>B218</f>
         <v>sodium hypophosphite production</v>
@@ -6901,7 +6906,7 @@
       <c r="N228" s="5"/>
       <c r="O228" s="5"/>
     </row>
-    <row r="229" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>76</v>
       </c>
@@ -6932,7 +6937,7 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="2"/>
     </row>
-    <row r="230" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>101</v>
       </c>
@@ -6961,7 +6966,7 @@
       <c r="N230" s="5"/>
       <c r="O230" s="5"/>
     </row>
-    <row r="231" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>168</v>
       </c>
@@ -6990,7 +6995,7 @@
       <c r="N231" s="5"/>
       <c r="O231" s="5"/>
     </row>
-    <row r="232" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>71</v>
       </c>
